--- a/data/trans_bre/P16A08-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P16A08-Habitat-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -710,7 +710,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -810,7 +810,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -910,7 +910,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">

--- a/data/trans_bre/P16A08-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P16A08-Habitat-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,16</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,28</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,56</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,94</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-56,56%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>141,23%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>228,69%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>53,68%</t>
         </is>
       </c>
     </row>
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>-6,02; 1,55</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>-2,02; 9,34</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>-0,68; 7,19</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>-4,91; 7,29</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>-77,07; —</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-81,86; 702,15</t>
         </is>
       </c>
     </row>
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,75</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,19</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,73</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,85</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>45,04%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>104,7%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>23,28%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>27,01%</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,75; 2,68</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,22; 4,35</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,26; 3,14</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,47; 3,11</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-40,43; 246,15</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,94; 327,58</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-35,18; 151,37</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-34,94; 149,29</t>
         </is>
       </c>
     </row>
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,29</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,17</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,05</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,66</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>52,97%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>60,45%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>108,42%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>21,51%</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,43; 3,07</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,25; 4,11</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,32; 4,86</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,11; 2,34</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-18,24; 171,93</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,26; 143,39</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>31,55; 229,29</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-27,4; 106,41</t>
         </is>
       </c>
     </row>
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,15</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,61</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,83</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,34</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>98,65%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>39,44%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>125,97%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>7,66%</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,37; 4,23</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,75; 4,09</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,68; 6,08</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,51; 2,42</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>7,96; 304,02</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,28; 137,33</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>37,33; 263,88</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-40,76; 70,8</t>
         </is>
       </c>
     </row>
@@ -1020,42 +1020,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,01</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,16</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,27</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,02</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>67,26%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>59,46%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>34,94%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>136,98%</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,04; 3,7</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,25; 4,3</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,59; 3,21</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,91; 8,64</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,63; 173,6</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,0; 161,52</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,63; 119,94</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>43,15; 354,95</t>
         </is>
       </c>
     </row>
@@ -1120,42 +1120,42 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,53</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,1</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,3</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,69</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>63,94%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>61,46%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>74,98%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>50,42%</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,74; 2,48</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,09; 3,09</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,37; 3,26</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,6; 3,22</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>25,93; 123,2</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>27,76; 103,26</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>38,82; 122,83</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>14,52; 104,88</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P16A08-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P16A08-Habitat-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-1,16</t>
+          <t>0,44</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>3,28</t>
+          <t>2,37</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>1,56</t>
+          <t>0,88</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>1,94</t>
+          <t>1,02</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-56,56%</t>
+          <t>25,27%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>141,23%</t>
+          <t>111,07%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>228,69%</t>
+          <t>32,43%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>53,68%</t>
+          <t>30,9%</t>
         </is>
       </c>
     </row>
@@ -668,49 +668,49 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-6,02; 1,55</t>
+          <t>-1,01; 1,89</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-2,02; 9,34</t>
+          <t>0,41; 4,25</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-0,68; 7,19</t>
+          <t>-1,05; 2,82</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-4,91; 7,29</t>
+          <t>-1,12; 3,36</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-45,29; 174,25</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-77,07; —</t>
+          <t>8,9; 322,86</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-32,71; 151,47</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-81,86; 702,15</t>
+          <t>-25,51; 150,74</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,75</t>
+          <t>1,29</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>2,19</t>
+          <t>2,17</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,73</t>
+          <t>3,05</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,85</t>
+          <t>0,94</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>45,04%</t>
+          <t>52,97%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>104,7%</t>
+          <t>60,45%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>23,28%</t>
+          <t>108,42%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>27,01%</t>
+          <t>34,77%</t>
         </is>
       </c>
     </row>
@@ -768,49 +768,49 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-0,75; 2,68</t>
+          <t>-0,43; 3,07</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,22; 4,35</t>
+          <t>0,25; 4,11</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-1,26; 3,14</t>
+          <t>1,32; 4,86</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-1,47; 3,11</t>
+          <t>-0,93; 3,07</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-40,43; 246,15</t>
+          <t>-18,24; 171,93</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-3,94; 327,58</t>
+          <t>3,26; 143,39</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-35,18; 151,37</t>
+          <t>31,55; 229,29</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-34,94; 149,29</t>
+          <t>-25,63; 193,49</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>1,29</t>
+          <t>2,15</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>2,17</t>
+          <t>1,61</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>3,05</t>
+          <t>3,83</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,66</t>
+          <t>-0,44</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>52,97%</t>
+          <t>98,65%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>60,45%</t>
+          <t>39,44%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>108,42%</t>
+          <t>125,97%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>21,51%</t>
+          <t>-9,73%</t>
         </is>
       </c>
     </row>
@@ -868,49 +868,49 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-0,43; 3,07</t>
+          <t>0,37; 4,23</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,25; 4,11</t>
+          <t>-0,75; 4,09</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,32; 4,86</t>
+          <t>1,68; 6,08</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,11; 2,34</t>
+          <t>-3,74; 1,77</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-18,24; 171,93</t>
+          <t>7,96; 304,02</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>3,26; 143,39</t>
+          <t>-16,28; 137,33</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>31,55; 229,29</t>
+          <t>37,33; 263,88</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-27,4; 106,41</t>
+          <t>-60,81; 47,76</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>2,15</t>
+          <t>2,01</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>1,61</t>
+          <t>2,16</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>3,83</t>
+          <t>1,27</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,34</t>
+          <t>8,7</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>98,65%</t>
+          <t>67,26%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>39,44%</t>
+          <t>59,46%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>125,97%</t>
+          <t>34,94%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>7,66%</t>
+          <t>292,31%</t>
         </is>
       </c>
     </row>
@@ -968,49 +968,49 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,37; 4,23</t>
+          <t>0,04; 3,7</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-0,75; 4,09</t>
+          <t>0,25; 4,3</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>1,68; 6,08</t>
+          <t>-0,59; 3,21</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-2,51; 2,42</t>
+          <t>2,03; 30,48</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>7,96; 304,02</t>
+          <t>0,63; 173,6</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-16,28; 137,33</t>
+          <t>5,0; 161,52</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>37,33; 263,88</t>
+          <t>-13,63; 119,94</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-40,76; 70,8</t>
+          <t>54,9; 1197,83</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1020,42 +1020,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>2,01</t>
+          <t>1,53</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>2,16</t>
+          <t>2,1</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>1,27</t>
+          <t>2,3</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>4,02</t>
+          <t>3,02</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>67,26%</t>
+          <t>63,94%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>59,46%</t>
+          <t>61,46%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>34,94%</t>
+          <t>74,98%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>136,98%</t>
+          <t>92,73%</t>
         </is>
       </c>
     </row>
@@ -1068,154 +1068,54 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,04; 3,7</t>
+          <t>0,74; 2,48</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,25; 4,3</t>
+          <t>1,09; 3,09</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-0,59; 3,21</t>
+          <t>1,37; 3,26</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>1,91; 8,64</t>
+          <t>0,81; 11,02</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0,63; 173,6</t>
+          <t>25,93; 123,2</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>5,0; 161,52</t>
+          <t>27,76; 103,26</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-13,63; 119,94</t>
+          <t>38,82; 122,83</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>43,15; 354,95</t>
+          <t>22,63; 371,49</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>1,53</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>2,1</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>2,3</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>1,69</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>63,94%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>61,46%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>74,98%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>50,42%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>0,74; 2,48</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>1,09; 3,09</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>1,37; 3,26</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>0,6; 3,22</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>25,93; 123,2</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>27,76; 103,26</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>38,82; 122,83</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>14,52; 104,88</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1224,7 +1124,6 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_bre/P16A08-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P16A08-Habitat-trans_bre.xlsx
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-1,01; 1,89</t>
+          <t>-1,11; 1,74</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,41; 4,25</t>
+          <t>0,37; 4,32</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-1,05; 2,82</t>
+          <t>-1,09; 2,97</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-1,12; 3,36</t>
+          <t>-1,3; 3,3</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-45,29; 174,25</t>
+          <t>-46,17; 157,19</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>8,9; 322,86</t>
+          <t>6,69; 305,71</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-32,71; 151,47</t>
+          <t>-33,41; 170,0</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-25,51; 150,74</t>
+          <t>-29,2; 155,25</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-0,43; 3,07</t>
+          <t>-0,28; 2,99</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,25; 4,11</t>
+          <t>0,1; 4,04</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1,32; 4,86</t>
+          <t>1,31; 4,89</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-0,93; 3,07</t>
+          <t>-1,04; 2,96</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-18,24; 171,93</t>
+          <t>-13,73; 179,98</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>3,26; 143,39</t>
+          <t>1,58; 154,41</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>31,55; 229,29</t>
+          <t>34,66; 236,07</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-25,63; 193,49</t>
+          <t>-25,81; 194,8</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,37; 4,23</t>
+          <t>0,23; 4,08</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-0,75; 4,09</t>
+          <t>-0,83; 3,98</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,68; 6,08</t>
+          <t>1,58; 6,15</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-3,74; 1,77</t>
+          <t>-3,46; 1,84</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>7,96; 304,02</t>
+          <t>4,12; 287,47</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-16,28; 137,33</t>
+          <t>-17,25; 131,64</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>37,33; 263,88</t>
+          <t>34,69; 275,82</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-60,81; 47,76</t>
+          <t>-56,99; 52,05</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,04; 3,7</t>
+          <t>0,31; 3,75</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,25; 4,3</t>
+          <t>0,19; 4,15</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-0,59; 3,21</t>
+          <t>-0,43; 3,12</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>2,03; 30,48</t>
+          <t>2,06; 25,34</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0,63; 173,6</t>
+          <t>6,48; 167,61</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>5,0; 161,52</t>
+          <t>3,29; 147,28</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-13,63; 119,94</t>
+          <t>-10,89; 117,31</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>54,9; 1197,83</t>
+          <t>60,22; 1087,09</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,74; 2,48</t>
+          <t>0,64; 2,4</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>1,09; 3,09</t>
+          <t>0,98; 3,07</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>1,37; 3,26</t>
+          <t>1,33; 3,35</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,81; 11,02</t>
+          <t>0,78; 9,9</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>25,93; 123,2</t>
+          <t>21,03; 121,72</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>27,76; 103,26</t>
+          <t>23,38; 101,25</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>38,82; 122,83</t>
+          <t>36,06; 126,06</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>22,63; 371,49</t>
+          <t>21,15; 336,51</t>
         </is>
       </c>
     </row>
